--- a/results/accel-glmm-results/diel-period-habitat/np/glmm_main_effects_dp_hab_np.xlsx
+++ b/results/accel-glmm-results/diel-period-habitat/np/glmm_main_effects_dp_hab_np.xlsx
@@ -383,13 +383,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>417.859613135956</v>
+        <v>417.859624865707</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000038460241596058</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000038460017106669</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>1661.64850108291</v>
+        <v>1661.64831845401</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -411,13 +411,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>109.622530704344</v>
+        <v>109.622538611944</v>
       </c>
       <c r="C4" t="n">
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00000000000000000710627270429104</v>
+        <v>0.00000000000000000710624712127579</v>
       </c>
     </row>
   </sheetData>

--- a/results/accel-glmm-results/diel-period-habitat/np/glmm_main_effects_dp_hab_np.xlsx
+++ b/results/accel-glmm-results/diel-period-habitat/np/glmm_main_effects_dp_hab_np.xlsx
@@ -383,13 +383,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>417.859624865707</v>
+        <v>417.859613564633</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000038460017106669</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000384602333918224</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>1661.64831845401</v>
+        <v>1661.64850130515</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -411,13 +411,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>109.622538611944</v>
+        <v>109.6225308904</v>
       </c>
       <c r="C4" t="n">
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00000000000000000710624712127579</v>
+        <v>0.00000000000000000710627210235243</v>
       </c>
     </row>
   </sheetData>
